--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_mistral_wikidata_dbpedia_results_comparison.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_mistral_wikidata_dbpedia_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['8848.86', 'http://dbpedia.org/resource/Alpide_belt']</t>
+          <t>['http://dbpedia.org/resource/Alpide_belt']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -868,11 +868,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
+          <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal', 'http://dbpedia.org/resource/Province_No._1', 'http://dbpedia.org/resource/Solukhumbu_District', 'http://dbpedia.org/resource/Tibet_Autonomous_Region', 'http://dbpedia.org/resource/Tingri_County', 'http://dbpedia.org/resource/Xigazê']</t>
         </is>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1308,47 +1308,47 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['2']</t>
         </is>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>In which country is Mecca located?</t>
+          <t>how much is the elevation of Düsseldorf Airport ?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
+          <t>['44.8']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
+          <t>['44.8', '44.8056']</t>
         </is>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="D46" t="b">
@@ -1358,17 +1358,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="D47" t="b">
@@ -1378,17 +1378,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="D48" t="b">
@@ -1398,17 +1398,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D49" t="b">
@@ -1418,17 +1418,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Which city has the least inhabitants?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D50" t="b">
@@ -1438,17 +1438,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Which television shows were created by Walt Disney?</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="D51" t="b">
@@ -1458,17 +1458,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Give me all Swedish holidays.</t>
+          <t>Which television shows were created by Walt Disney?</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="D52" t="b">
@@ -1478,17 +1478,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>Give me all Swedish holidays.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', "http://dbpedia.org/resource/International_Men's_Day", "http://dbpedia.org/resource/Knut's_party", "http://dbpedia.org/resource/Saint_Knut's_Day", "http://dbpedia.org/resource/Sweden_Finns'_Day", 'http://dbpedia.org/resource/Veterans_Day_(Sweden)', 'http://dbpedia.org/resource/Victoria_Days']</t>
         </is>
       </c>
       <c r="D53" t="b">
@@ -1498,17 +1498,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+          <t>Where did Abraham Lincoln die?</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
         </is>
       </c>
       <c r="D54" t="b">
@@ -1518,17 +1518,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>Give me the capitals of all countries that the Himalayas run through.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/New_Delhi']</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/New_Delhi']</t>
         </is>
       </c>
       <c r="D55" t="b">
@@ -1538,17 +1538,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D56" t="b">
@@ -1558,17 +1558,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>How tall is Michael Jordan?</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['1.9812']</t>
         </is>
       </c>
       <c r="D57" t="b">
@@ -1578,17 +1578,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="D58" t="b">
@@ -1598,17 +1598,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>In which countries can you pay using the West African CFA franc?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
         </is>
       </c>
       <c r="D59" t="b">
@@ -1618,17 +1618,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Which holidays are celebrated around the world?</t>
+          <t>how much is the population Iraq?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+          <t>['40462701']</t>
         </is>
       </c>
       <c r="D60" t="b">
@@ -1638,17 +1638,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Which Greek parties are pro-European?</t>
+          <t>Which holidays are celebrated around the world?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
         </is>
       </c>
       <c r="D61" t="b">
@@ -1658,17 +1658,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+          <t>Which Greek parties are pro-European?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
         </is>
       </c>
       <c r="D62" t="b">
@@ -1678,17 +1678,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>To which artistic movement did the painter of The Three Dancers belong?</t>
+          <t>Give me the birthdays of all actors of the television show Charmed.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
         </is>
       </c>
       <c r="D63" t="b">
@@ -1698,17 +1698,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Which actors were born in Germany?</t>
+          <t>To which artistic movement did the painter of The Three Dancers belong?</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
+          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Brigitte_Mira', 'http://dbpedia.org/resource/David_Epley_(entertainer)', 'http://dbpedia.org/resource/Friederike_Caroline_Neuber', 'http://dbpedia.org/resource/Gordon_Hopkirk', 'http://dbpedia.org/resource/Shimon_Schwarzschild', 'http://dbpedia.org/resource/Walter_Bluhm', 'http://dbpedia.org/resource/Walther_Süssenguth']</t>
+          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
         </is>
       </c>
       <c r="D64" t="b">
@@ -1938,17 +1938,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Give me a list of all bandleaders that play trumpet.</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="D76" t="b">
@@ -1958,17 +1958,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D77" t="b">
@@ -1978,17 +1978,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
         </is>
       </c>
       <c r="D78" t="b">
@@ -1998,17 +1998,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Which soccer players were born on Malta?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D79" t="b">
@@ -2018,17 +2018,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>Which soccer players were born on Malta?</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
         </is>
       </c>
       <c r="D80" t="b">
@@ -2038,17 +2038,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D81" t="b">
@@ -2058,17 +2058,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Give me all cosmonauts.</t>
+          <t>How many programming languages are there?</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
+          <t>['1325']</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
+          <t>['1325']</t>
         </is>
       </c>
       <c r="D82" t="b">
@@ -2078,17 +2078,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>Give me all cosmonauts.</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Aleksandr_Aleksandrovich_Volkov', 'http://dbpedia.org/resource/Aleksandr_Ivanchenkov', 'http://dbpedia.org/resource/Aleksandr_Laveykin', 'http://dbpedia.org/resource/Aleksandr_Nikolayevich_Balandin', 'http://dbpedia.org/resource/Aleksandr_Pavlovich_Aleksandrov__Aleksandr_Pavlovich_Aleksandrov__1', 'http://dbpedia.org/resource/Aleksandr_Serebrov', 'http://dbpedia.org/resource/Aleksandr_Viktorenko', 'http://dbpedia.org/resource/Aleksei_Gubarev', 'http://dbpedia.org/resource/Aleksei_Yeliseyev', 'http://dbpedia.org/resource/Anatoly_Berezovoy', 'http://dbpedia.org/resource/Anatoly_Filipchenko', 'http://dbpedia.org/resource/Anatoly_Levchenko__Anatoly_Semyonovich_Levchenko__1', 'http://dbpedia.org/resource/Andriyan_Nikolayev', 'http://dbpedia.org/resource/Boris_Andreyev_(cosmonaut)', 'http://dbpedia.org/resource/Boris_Volynov', 'http://dbpedia.org/resource/Boris_Yegorov', 'http://dbpedia.org/resource/Gennady_Manakov', 'http://dbpedia.org/resource/Gennady_Sarafanov', 'http://dbpedia.org/resource/Gennady_Strekalov', 'http://dbpedia.org/resource/Georgy_Dobrovolsky', 'http://dbpedia.org/resource/Georgy_Grechko', 'http://dbpedia.org/resource/Ivan_Anikeyev', 'http://dbpedia.org/resource/Konstantin_Feoktistov', 'http://dbpedia.org/resource/Leonid_Ivanov_(test_pilot)', 'http://dbpedia.org/resource/Leonid_Kizim', 'http://dbpedia.org/resource/Leonid_Popov', 'http://dbpedia.org/resource/Lev_Dyomin', 'http://dbpedia.org/resource/Mars_Rafikov', 'http://dbpedia.org/resource/Nikolai_Rukavishnikov', 'http://dbpedia.org/resource/Oleg_Atkov', 'http://dbpedia.org/resource/Oleg_Grigoriyevich_Kononenko', 'http://dbpedia.org/resource/Oleg_Makarov_(cosmonaut)', 'http://dbpedia.org/resource/Pavel_Belyayev', 'http://dbpedia.org/resource/Sergey_Volkov_(cosmonaut)', 'http://dbpedia.org/resource/Sergey_Vozovikov', 'http://dbpedia.org/resource/Valentin_Bondarenko', 'http://dbpedia.org/resource/Valentin_Lebedev', 'http://dbpedia.org/resource/Valery_Bykovsky', 'http://dbpedia.org/resource/Valery_Kubasov', 'http://dbpedia.org/resource/Valery_Rozhdestvensky', 'http://dbpedia.org/resource/Valery_Ryumin', 'http://dbpedia.org/resource/Vasily_Lazarev', 'http://dbpedia.org/resource/Viktor_Gorbatko', 'http://dbpedia.org/resource/Viktor_Patsayev', 'http://dbpedia.org/resource/Viktor_Savinykh', 'http://dbpedia.org/resource/Vitaly_Sevastyanov', 'http://dbpedia.org/resource/Vladimir_Aksyonov', 'http://dbpedia.org/resource/Vladimir_Dzhanibekov', 'http://dbpedia.org/resource/Vladimir_Shatalov', 'http://dbpedia.org/resource/Vladimir_Solovyov_(cosmonaut)', 'http://dbpedia.org/resource/Vladimir_Vasyutin', 'http://dbpedia.org/resource/Vladislav_Volkov', 'http://dbpedia.org/resource/Vyacheslav_Zudov', 'http://dbpedia.org/resource/Yevgeny_Khrunov', 'http://dbpedia.org/resource/Yuri_Artyukhin', 'http://dbpedia.org/resource/Yuri_Glazkov', 'http://dbpedia.org/resource/Yuri_Malyshev_(cosmonaut)', 'http://dbpedia.org/resource/Yuri_Romanenko']</t>
         </is>
       </c>
       <c r="D83" t="b">
@@ -2098,17 +2098,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="D84" t="b">
@@ -2118,17 +2118,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>How much is the population of mexico city ?</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['9209944']</t>
         </is>
       </c>
       <c r="D85" t="b">
@@ -2138,17 +2138,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>Who created Batman?</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
         </is>
       </c>
       <c r="D86" t="b">
@@ -2158,17 +2158,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>How many people live in the capital of Australia?</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['453558']</t>
         </is>
       </c>
       <c r="D87" t="b">
@@ -2178,17 +2178,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['34084130000']</t>
         </is>
       </c>
       <c r="D88" t="b">
@@ -2198,17 +2198,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>How much did Pulp Fiction cost?</t>
+          <t>How many employees does IBM have?</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['282100']</t>
         </is>
       </c>
       <c r="D89" t="b">
@@ -2218,57 +2218,57 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>What movies does Jesse Eisenberg play in?</t>
+          <t>How much did Pulp Fiction cost?</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+          <t>['8.0']</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
+          <t>['8.0']</t>
         </is>
       </c>
       <c r="D90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Give me all Danish movies.</t>
+          <t>What movies does Jesse Eisenberg play in?</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Free_Samples', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+          <t>['http://dbpedia.org/resource/Addicted_to_Fame', 'http://dbpedia.org/resource/Adventureland_(film)', 'http://dbpedia.org/resource/American_Ultra', 'http://dbpedia.org/resource/Batman_v_Superman:_Dawn_of_Justice', 'http://dbpedia.org/resource/Café_Society_(2016_film)', 'http://dbpedia.org/resource/Camp_Hell', 'http://dbpedia.org/resource/Cursed_(2005_film)', 'http://dbpedia.org/resource/Fleishman_Is_in_Trouble_(miniseries)', 'http://dbpedia.org/resource/Free_Samples', 'http://dbpedia.org/resource/Get_Real_(American_TV_series)', "http://dbpedia.org/resource/He's_Way_More_Famous_Than_You", 'http://dbpedia.org/resource/Louder_Than_Bombs_(film)', 'http://dbpedia.org/resource/Night_Moves_(2013_film)', 'http://dbpedia.org/resource/Now_You_See_Me_(film_series)', 'http://dbpedia.org/resource/Now_You_See_Me_(film)', 'http://dbpedia.org/resource/Now_You_See_Me_2', 'http://dbpedia.org/resource/One_Day_Like_Rain', 'http://dbpedia.org/resource/Resistance_(2020_film)', 'http://dbpedia.org/resource/Rio_(2011_film)', 'http://dbpedia.org/resource/Rio_2', 'http://dbpedia.org/resource/Roger_Dodger_(film)', 'http://dbpedia.org/resource/Solitary_Man_(film)', 'http://dbpedia.org/resource/The_Art_of_Self-Defense_(2019_film)', 'http://dbpedia.org/resource/The_Double_(2013_film)__The_Double__1', 'http://dbpedia.org/resource/The_Education_of_Charlie_Banks', 'http://dbpedia.org/resource/The_End_of_the_Tour', 'http://dbpedia.org/resource/The_Hummingbird_Project', 'http://dbpedia.org/resource/The_Hunting_Party_(2007_film)', 'http://dbpedia.org/resource/The_Living_Wake', 'http://dbpedia.org/resource/The_Social_Network', 'http://dbpedia.org/resource/The_Squid_and_the_Whale', 'http://dbpedia.org/resource/To_Rome_with_Love_(film)', 'http://dbpedia.org/resource/Vivarium_(film)', 'http://dbpedia.org/resource/Why_Stop_Now_(film)', 'http://dbpedia.org/resource/Wild_Indian', "http://dbpedia.org/resource/Zack_Snyder's_Justice_League", 'http://dbpedia.org/resource/Zombieland:_Double_Tap', 'http://dbpedia.org/resource/Zombieland']</t>
         </is>
       </c>
       <c r="D91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
+          <t>Give me all Danish movies.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
         </is>
       </c>
       <c r="D92" t="b">
@@ -2278,17 +2278,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>What is the largest country in the world?</t>
+          <t>To which countries does the Himalayan mountain system extend?</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Asia']</t>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Asia']</t>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
         </is>
       </c>
       <c r="D93" t="b">
@@ -2298,17 +2298,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+          <t>What is the largest country in the world?</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+          <t>['http://dbpedia.org/resource/Asia']</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+          <t>['http://dbpedia.org/resource/Asia']</t>
         </is>
       </c>
       <c r="D94" t="b">
@@ -2318,20 +2318,40 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
+          <t>What is the alma mater of the chancellor of Germany Angela Merkel?</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+        </is>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>Who created Goofy?</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
-      <c r="D95" t="b">
+      <c r="D96" t="b">
         <v>1</v>
       </c>
     </row>
